--- a/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/components/peer_detailTab.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/components/peer_detailTab.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\韩凯\2019.1\console;Networking;iaas网络与容器中文提取-0107-译文-提交\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwei27/GitRepository/jdcloud-document/en/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/components/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452333C4-56A2-8D44-A7E2-34FA75A16908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="32500" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <r>
       <rPr>
@@ -738,18 +739,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>The name cannot be null</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The name length cannot exceed 32 characters</t>
     </r>
   </si>
   <si>
@@ -794,14 +783,71 @@
   </si>
   <si>
     <t>Modify description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>修改意见</t>
+    </r>
+  </si>
+  <si>
+    <t>Peer VPC ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPC ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer VPC Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPC Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPC Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Peer VPC Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The name must not be empty</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The name only supports Chinese, numbers, uppercase and lowercase letters, English underline "_" and hyphen "-"</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">The description only supports Chinese, numbers, uppercase and lowercase letters, English underline "_" </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The name length cannot exceed 32 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name length cannot exceed 32 characters</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -811,6 +857,21 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="Arial"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="3"/>
       <charset val="134"/>
@@ -837,10 +898,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1180,266 +1247,302 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="24.21875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="24.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.77734375" customWidth="1"/>
-    <col min="3" max="3" width="47.77734375" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" customWidth="1"/>
+    <col min="3" max="3" width="47.7109375" customWidth="1"/>
+    <col min="4" max="4" width="49.5703125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="D13" s="2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="D14" s="2" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="D15" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="D16" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="D17" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="D18" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C19" s="1" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="D19" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C20" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="D21" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="1" t="s">
+    <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>63</v>
+      <c r="D23" s="3" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:B22" numberStoredAsText="1"/>
+    <ignoredError sqref="A2:B23" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/components/peer_detailTab.xlsx
+++ b/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/components/peer_detailTab.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10114"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wangwei27/GitRepository/jdcloud-document/en/console/Networking/iaas网络与容器中文提取/vpcpeeringExcel/components/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452333C4-56A2-8D44-A7E2-34FA75A16908}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32500" windowHeight="16640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="465" windowWidth="21840" windowHeight="13740"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <r>
       <rPr>
@@ -547,234 +541,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>描述只支持中文、数字、大小写字母及英文下划线“_”</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Basic Information</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Edit</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Cancel</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Confirm&amp;nbsp;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Description</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Creation Time</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Region</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Configuration Information</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VPC ID of the End</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VPC Name of the End</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VPC Range of the End</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VPC ID of the Opposite End</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VPC Name of the Opposite End</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>VPC Range of the Opposite End</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>The name cannot be null</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Name only supports Chinese, numbers, upper case and lower case letters, English underline “_” and line-through</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Description length cannot exceed 256 characters</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Description only supports Chinese, numbers, upper case and lower case letters and English underline “_”</t>
     </r>
   </si>
   <si>
@@ -786,39 +552,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Arial"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>修改意见</t>
-    </r>
-  </si>
-  <si>
     <t>Peer VPC ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VPC ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Peer VPC Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VPC Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VPC Range</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Peer VPC Range</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -835,18 +576,146 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>The name length cannot exceed 32 characters</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name length cannot exceed 32 characters</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My VPC ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My VPC Name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>My VPC Range</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Basic Information</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Name</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Edit</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cancel</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Confirm&amp;nbsp;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Creation Time</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Region</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Configuration Information</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Description length cannot exceed 256 characters</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -871,10 +740,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -898,7 +766,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -908,6 +776,16 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1247,300 +1125,267 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24.28515625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="24.33203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="47.7109375" customWidth="1"/>
-    <col min="4" max="4" width="49.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="47.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="49.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="D1" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C2" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C3" s="5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C4" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C6" s="5" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C7" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C8" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C9" s="5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C10" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C11" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C12" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C16" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C17" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C18" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="C19" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="C20" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="17" x14ac:dyDescent="0.2">
+      <c r="C21" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="68" x14ac:dyDescent="0.2">
+      <c r="C22" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>74</v>
-      </c>
+      <c r="C23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D23" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="A2:B23" numberStoredAsText="1"/>
   </ignoredErrors>
